--- a/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 15,41</t>
+          <t>-10,73; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,07</t>
+          <t>-5,42; 8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 12,77</t>
+          <t>0,15; 9,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 39,73</t>
+          <t>-19,05; 31,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 9,53</t>
+          <t>-5,77; 9,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 15,0</t>
+          <t>0,16; 10,99</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 8,72</t>
+          <t>-11,33; 12,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 11,99</t>
+          <t>1,64; 19,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 8,07</t>
+          <t>-0,31; 16,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 24,38</t>
+          <t>-24,79; 34,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,42</t>
+          <t>1,8; 24,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 9,16</t>
+          <t>-0,3; 20,54</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>26,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>-5,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 35,39</t>
+          <t>-23,31; 31,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 43,28</t>
+          <t>0,0; 66,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 1,15</t>
+          <t>-18,24; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 150,12</t>
+          <t>-39,01; 116,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 77,44</t>
+          <t>0,0; 197,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 1,15</t>
+          <t>-18,24; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 10,35</t>
+          <t>-7,03; 9,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,78</t>
+          <t>1,19; 15,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,32</t>
+          <t>0,49; 9,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 27,41</t>
+          <t>-14,13; 23,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,66</t>
+          <t>1,24; 19,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,2</t>
+          <t>0,54; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4921583483378733</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.378800337693276</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.981618507402596</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.01012158143659368</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.01538963015322671</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.04229427908101598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 12,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 8,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 9,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,05; 31,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 9,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 10,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.72814441716529</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.133564583354953</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.171671256118861</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1905310462470232</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.05574975485396626</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.00171400379260867</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.69279349495472</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.493227830247728</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.305366837362762</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3189771118854199</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.09837561195309413</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1037350506812875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,33; 12,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 19,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 16,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,79; 34,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 24,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 20,54</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.03500346219924566</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.498422122525328</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.446268220641482</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.0008484750241032321</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.08388222113417332</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.07182982848211736</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>26,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>36,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-5,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.33071274102281</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.265484014075079</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.2178885184433974</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2478867810331571</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.01476252275142372</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.002144931684398266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,31; 31,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 66,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-39,01; 116,81</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 197,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 0,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.12026827791666</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.32946290089375</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.40017047118733</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3498559261042778</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2401454672420091</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2191530326764531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.389901944530871</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>26.51802825563353</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.936913587647597</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.09794039916208515</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3608780170990247</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.05936913587647596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 9,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 15,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 9,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 23,68</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 19,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 10,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.3124826425011</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.98456186691767</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3901073591241785</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1898456186691767</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>31.95372492008397</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>66.54398343067756</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.168128249789544</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.987657184571409</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.8267832912738471</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.374539282669756</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.064702157186185</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01830339603498417</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.07255838777504682</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.04376611699096647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.031471875183184</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.07204043932512</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3979693489168414</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1412732518546121</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01167804948937188</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.004227386834075016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.334942686109258</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.35709355345084</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.254075584230776</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2367629071330554</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1804976227758733</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1035544870682057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
